--- a/entrevista/Entrevista Socioeconômica - TSI 2023 (respostas).xlsx
+++ b/entrevista/Entrevista Socioeconômica - TSI 2023 (respostas).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaduque/Documents/GitHub/Entrevista-Socioeconomica/entrevista/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E04EC-C2FC-9A4F-A03D-2EFD71DF911C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989DE3E4-BC21-0648-B1FC-669DB8BEEE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="20" yWindow="500" windowWidth="28780" windowHeight="16020" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="20" yWindow="500" windowWidth="28780" windowHeight="15940" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas originais" sheetId="1" r:id="rId1"/>
@@ -497,9 +497,6 @@
     <t>Documento de aposentadoria</t>
   </si>
   <si>
-    <t>Comprovante de IPTU de 2021,  2022 ou 2023</t>
-  </si>
-  <si>
     <t>Quando não apresenta um documento comprobatório e alegou um valor</t>
   </si>
   <si>
@@ -2188,6 +2185,9 @@
   </si>
   <si>
     <t xml:space="preserve">        inf</t>
+  </si>
+  <si>
+    <t>Comprovante de IPTU de 2021, 2022 ou 2023</t>
   </si>
 </sst>
 </file>
@@ -2481,9 +2481,9 @@
   </sheetPr>
   <dimension ref="A1:CO68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE70" sqref="BE70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3475,7 +3475,7 @@
         <v>4185</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF4" s="1">
         <v>152</v>
@@ -3493,7 +3493,7 @@
         <v>210</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>118</v>
@@ -3502,7 +3502,7 @@
         <v>120</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO4" s="1">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>169</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BT4" s="1">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>115</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>143</v>
@@ -3568,7 +3568,7 @@
         <v>93</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CM4" s="1" t="s">
         <v>127</v>
@@ -3589,7 +3589,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>92</v>
@@ -3616,19 +3616,19 @@
         <v>96</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M5" s="1">
         <v>2023040027</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O5" s="1">
         <v>11958821316</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>93</v>
@@ -3646,10 +3646,10 @@
         <v>101</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>104</v>
@@ -3724,7 +3724,7 @@
         <v>800</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX5" s="6">
         <v>654000000</v>
@@ -3733,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD5" s="1">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>144</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BT5" s="1">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>123</v>
       </c>
       <c r="CG5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CH5" s="1" t="s">
         <v>124</v>
@@ -3859,10 +3859,10 @@
         <v>45128.686836157409</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>92</v>
@@ -3871,7 +3871,7 @@
         <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>94</v>
@@ -3886,22 +3886,22 @@
         <v>97</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="M6" s="1">
         <v>2023040002</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O6" s="1">
         <v>11963127080</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>93</v>
@@ -3919,10 +3919,10 @@
         <v>101</v>
       </c>
       <c r="V6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>104</v>
@@ -3931,13 +3931,13 @@
         <v>105</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA6" s="1">
         <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>92</v>
@@ -4007,7 +4007,7 @@
         <v>383333333</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ6" s="1">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF6" s="1">
         <v>72</v>
@@ -4043,10 +4043,10 @@
         <v>30</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BM6" s="1">
         <v>177</v>
@@ -4076,7 +4076,7 @@
         <v>120</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BW6" s="1">
         <v>1</v>
@@ -4088,28 +4088,28 @@
         <v>0</v>
       </c>
       <c r="BZ6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG6" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="CH6" s="1" t="s">
         <v>124</v>
@@ -4130,7 +4130,7 @@
         <v>146</v>
       </c>
       <c r="CN6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CO6" s="1" t="str">
         <f>IFERROR(VLOOKUP(N6,#REF!,24,0), "erro")</f>
@@ -4142,10 +4142,10 @@
         <v>45128.694104861112</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>92</v>
@@ -4169,16 +4169,16 @@
         <v>97</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="M7" s="1">
         <v>2023040052</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O7" s="1">
         <v>11945943082</v>
@@ -4196,16 +4196,16 @@
         <v>36400</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>104</v>
@@ -4284,7 +4284,7 @@
         <v>5002000000</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AZ7" s="1">
         <v>0</v>
@@ -4296,25 +4296,25 @@
         <v>1000</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BD7" s="1">
         <v>1218</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BF7" s="1">
         <v>70</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH7" s="1">
         <v>168</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ7" s="1">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>127</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO7" s="1">
         <v>550</v>
@@ -4344,16 +4344,16 @@
         <v>23</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BT7" s="1">
         <v>440</v>
       </c>
       <c r="BU7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV7" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="BW7" s="1">
         <v>1</v>
@@ -4365,19 +4365,19 @@
         <v>3171</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA7" s="1">
         <v>0</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CC7" s="1">
         <v>0</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CE7" s="1">
         <v>0</v>
@@ -4413,10 +4413,10 @@
         <v>45128.710321469909</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>92</v>
@@ -4425,7 +4425,7 @@
         <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
@@ -4443,19 +4443,19 @@
         <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M8" s="1">
         <v>2023040009</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O8" s="1">
         <v>11970234654</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>93</v>
@@ -4473,10 +4473,10 @@
         <v>101</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>104</v>
@@ -4555,7 +4555,7 @@
         <v>540000000</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ8" s="1">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>120</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW8" s="1">
         <v>0</v>
@@ -4660,7 +4660,7 @@
         <v>124</v>
       </c>
       <c r="CI8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>143</v>
@@ -4672,7 +4672,7 @@
         <v>126</v>
       </c>
       <c r="CM8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CN8" s="1" t="s">
         <v>127</v>
@@ -4690,7 +4690,7 @@
         <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>92</v>
@@ -4711,19 +4711,19 @@
         <v>95</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="M9" s="1">
         <v>2023040030</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O9" s="1">
         <v>11962803477</v>
@@ -4747,10 +4747,10 @@
         <v>101</v>
       </c>
       <c r="V9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W9" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>104</v>
@@ -4765,7 +4765,7 @@
         <v>107</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>93</v>
@@ -4808,7 +4808,7 @@
         <v>2544</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AR9" s="1">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>109</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AZ9" s="1">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>3200</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BD9" s="1">
         <v>0</v>
@@ -4853,13 +4853,13 @@
         <v>80</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH9" s="1">
         <v>60</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ9" s="1">
         <v>90</v>
@@ -4874,7 +4874,7 @@
         <v>120</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO9" s="1">
         <v>40</v>
@@ -4898,7 +4898,7 @@
         <v>120</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BW9" s="1">
         <v>0</v>
@@ -4961,10 +4961,10 @@
         <v>45128.713674363426</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>92</v>
@@ -4973,7 +4973,7 @@
         <v>93</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -4988,22 +4988,22 @@
         <v>97</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="M10" s="1">
         <v>2023040011</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O10" s="1">
         <v>11947082918</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>93</v>
@@ -5021,10 +5021,10 @@
         <v>101</v>
       </c>
       <c r="V10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>104</v>
@@ -5106,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD10" s="1">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1206</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BT10" s="1">
         <v>200</v>
@@ -5169,7 +5169,7 @@
         <v>120</v>
       </c>
       <c r="BV10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BW10" s="1">
         <v>1</v>
@@ -5202,28 +5202,28 @@
         <v>115</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CK10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CL10" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CM10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CN10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO10" s="1" t="str">
         <f>IFERROR(VLOOKUP(N10,#REF!,24,0), "erro")</f>
@@ -5235,10 +5235,10 @@
         <v>45128.717027418985</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>92</v>
@@ -5247,7 +5247,7 @@
         <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
@@ -5265,13 +5265,13 @@
         <v>97</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M11" s="1">
         <v>2023040096</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O11" s="1">
         <v>11983395316</v>
@@ -5295,10 +5295,10 @@
         <v>101</v>
       </c>
       <c r="V11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="W11" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>104</v>
@@ -5307,7 +5307,7 @@
         <v>105</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA11" s="1">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>700000000</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AZ11" s="1">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>100</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH11" s="1">
         <v>221</v>
@@ -5413,7 +5413,7 @@
         <v>40</v>
       </c>
       <c r="BK11" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>118</v>
@@ -5443,10 +5443,10 @@
         <v>46</v>
       </c>
       <c r="BU11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BV11" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="BV11" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="BW11" s="1">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>115</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="CH11" s="1" t="s">
         <v>124</v>
@@ -5494,10 +5494,10 @@
         <v>126</v>
       </c>
       <c r="CM11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CN11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CO11" s="1" t="str">
         <f>IFERROR(VLOOKUP(N11,#REF!,24,0), "erro")</f>
@@ -5512,7 +5512,7 @@
         <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>92</v>
@@ -5539,13 +5539,13 @@
         <v>97</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M12" s="1">
         <v>2023040122</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O12" s="1">
         <v>11949545500</v>
@@ -5563,19 +5563,19 @@
         <v>37334</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="X12" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>105</v>
@@ -5654,31 +5654,31 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="1" t="s">
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="BJ12" s="1">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>250</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO12" s="1">
         <v>396</v>
@@ -5750,7 +5750,7 @@
         <v>124</v>
       </c>
       <c r="CI12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ12" s="1" t="s">
         <v>143</v>
@@ -5777,10 +5777,10 @@
         <v>45128.765385752311</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>92</v>
@@ -5789,7 +5789,7 @@
         <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -5807,13 +5807,13 @@
         <v>97</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M13" s="1">
         <v>2023040068</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O13" s="1">
         <v>11986750029</v>
@@ -5837,10 +5837,10 @@
         <v>101</v>
       </c>
       <c r="V13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="W13" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>104</v>
@@ -5873,7 +5873,7 @@
         <v>350</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AP13" s="1">
         <v>0</v>
@@ -5916,7 +5916,7 @@
         <v>109</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AZ13" s="1">
         <v>0</v>
@@ -5940,13 +5940,13 @@
         <v>100</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH13" s="1">
         <v>100</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ13" s="1">
         <v>0</v>
@@ -6030,10 +6030,10 @@
         <v>126</v>
       </c>
       <c r="CM13" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CN13" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CO13" s="1" t="str">
         <f>IFERROR(VLOOKUP(N13,#REF!,24,0), "erro")</f>
@@ -6045,10 +6045,10 @@
         <v>45128.77046550926</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>92</v>
@@ -6075,19 +6075,19 @@
         <v>96</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M14" s="1">
         <v>2023040034</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O14" s="1">
         <v>11949884515</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>93</v>
@@ -6105,10 +6105,10 @@
         <v>101</v>
       </c>
       <c r="V14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="W14" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>104</v>
@@ -6187,7 +6187,7 @@
         <v>736666667</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AZ14" s="1">
         <v>0</v>
@@ -6223,10 +6223,10 @@
         <v>40</v>
       </c>
       <c r="BK14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BM14" s="1">
         <v>0</v>
@@ -6256,7 +6256,7 @@
         <v>120</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BW14" s="1">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>600</v>
       </c>
       <c r="CF14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CH14" s="1" t="s">
         <v>124</v>
@@ -6304,7 +6304,7 @@
         <v>126</v>
       </c>
       <c r="CM14" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CN14" s="1" t="s">
         <v>146</v>
@@ -6319,10 +6319,10 @@
         <v>45128.770469317125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>92</v>
@@ -6346,16 +6346,16 @@
         <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M15" s="1">
         <v>2023040085</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O15" s="1">
         <v>11986297679</v>
@@ -6367,7 +6367,7 @@
         <v>93</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S15" s="4">
         <v>36777</v>
@@ -6379,10 +6379,10 @@
         <v>101</v>
       </c>
       <c r="V15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W15" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>104</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP15" s="1">
         <v>0</v>
@@ -6458,10 +6458,10 @@
         <v>109</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AZ15" s="1">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>500</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BD15" s="1">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>30</v>
       </c>
       <c r="BK15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL15" s="1" t="s">
         <v>118</v>
@@ -6530,40 +6530,40 @@
         <v>120</v>
       </c>
       <c r="BV15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="BW15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB15" s="1" t="s">
+      <c r="CC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG15" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="CC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="CE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CG15" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="CH15" s="1" t="s">
         <v>124</v>
@@ -6578,7 +6578,7 @@
         <v>126</v>
       </c>
       <c r="CM15" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CN15" s="1" t="s">
         <v>128</v>
@@ -6593,10 +6593,10 @@
         <v>45128.771753645837</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>92</v>
@@ -6605,7 +6605,7 @@
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G16" s="1">
         <v>4</v>
@@ -6623,13 +6623,13 @@
         <v>97</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M16" s="1">
         <v>2023040054</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O16" s="1">
         <v>11987079032</v>
@@ -6653,13 +6653,13 @@
         <v>101</v>
       </c>
       <c r="V16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="W16" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="X16" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>105</v>
@@ -6734,13 +6734,13 @@
         <v>3337000000</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AZ16" s="1">
         <v>0</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -6752,13 +6752,13 @@
         <v>4392</v>
       </c>
       <c r="BE16" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF16" s="1">
         <v>80</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH16" s="1">
         <v>171</v>
@@ -6779,7 +6779,7 @@
         <v>100</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO16" s="1">
         <v>0</v>
@@ -6794,16 +6794,16 @@
         <v>363</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BT16" s="1">
         <v>525</v>
       </c>
       <c r="BU16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BV16" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="BV16" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="BW16" s="1">
         <v>1</v>
@@ -6833,7 +6833,7 @@
         <v>57650</v>
       </c>
       <c r="CF16" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="CH16" s="1" t="s">
         <v>124</v>
@@ -6848,7 +6848,7 @@
         <v>126</v>
       </c>
       <c r="CM16" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CN16" s="1" t="s">
         <v>146</v>
@@ -6866,7 +6866,7 @@
         <v>129</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>92</v>
@@ -6893,13 +6893,13 @@
         <v>97</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M17" s="1">
         <v>2023040004</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O17" s="1">
         <v>11949359113</v>
@@ -6923,10 +6923,10 @@
         <v>101</v>
       </c>
       <c r="V17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="W17" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>104</v>
@@ -7014,13 +7014,13 @@
         <v>381</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BD17" s="1">
         <v>1075</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF17" s="1">
         <v>46</v>
@@ -7041,7 +7041,7 @@
         <v>115</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM17" s="1">
         <v>106</v>
@@ -7071,7 +7071,7 @@
         <v>120</v>
       </c>
       <c r="BV17" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BW17" s="1">
         <v>0</v>
@@ -7119,10 +7119,10 @@
         <v>126</v>
       </c>
       <c r="CM17" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CN17" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CO17" s="1" t="str">
         <f>IFERROR(VLOOKUP(N17,#REF!,24,0), "erro")</f>
@@ -7134,10 +7134,10 @@
         <v>45128.818392453701</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>92</v>
@@ -7164,13 +7164,13 @@
         <v>96</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M18" s="1">
         <v>2023040130</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O18" s="1">
         <v>11948159168</v>
@@ -7194,13 +7194,13 @@
         <v>101</v>
       </c>
       <c r="V18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="W18" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="X18" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>105</v>
@@ -7285,13 +7285,13 @@
         <v>450</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BD18" s="1">
         <v>7116</v>
       </c>
       <c r="BE18" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF18" s="1">
         <v>0</v>
@@ -7339,10 +7339,10 @@
         <v>1200</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BW18" s="1">
         <v>1</v>
@@ -7375,7 +7375,7 @@
         <v>115</v>
       </c>
       <c r="CG18" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CH18" s="1" t="s">
         <v>141</v>
@@ -7408,10 +7408,10 @@
         <v>45128.819211805559</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>92</v>
@@ -7420,7 +7420,7 @@
         <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G19" s="1">
         <v>5</v>
@@ -7438,13 +7438,13 @@
         <v>96</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M19" s="1">
         <v>2023040012</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O19" s="1">
         <v>11976440668</v>
@@ -7468,10 +7468,10 @@
         <v>101</v>
       </c>
       <c r="V19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="W19" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>104</v>
@@ -7547,25 +7547,25 @@
         <v>600</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX19" s="6">
         <v>162500000</v>
       </c>
       <c r="AY19" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AZ19" s="1">
         <v>0</v>
       </c>
       <c r="BA19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD19" s="1">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>76</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ19" s="1">
         <v>0</v>
@@ -7652,10 +7652,10 @@
         <v>115</v>
       </c>
       <c r="CG19" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CH19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI19" s="1" t="s">
         <v>142</v>
@@ -7685,10 +7685,10 @@
         <v>45128.823400208334</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>92</v>
@@ -7715,19 +7715,19 @@
         <v>96</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M20" s="1">
         <v>2023040126</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O20" s="1">
         <v>11991415594</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>93</v>
@@ -7739,16 +7739,16 @@
         <v>38199</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>104</v>
@@ -7848,13 +7848,13 @@
         <v>206</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF20" s="1">
         <v>0</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BH20" s="1">
         <v>253</v>
@@ -7899,7 +7899,7 @@
         <v>120</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW20" s="1">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>115</v>
       </c>
       <c r="CH20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI20" s="1" t="s">
         <v>142</v>
@@ -7965,7 +7965,7 @@
         <v>129</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>92</v>
@@ -7974,7 +7974,7 @@
         <v>93</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -7989,16 +7989,16 @@
         <v>97</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M21" s="1">
         <v>2023040127</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O21" s="1">
         <v>11946230956</v>
@@ -8016,16 +8016,16 @@
         <v>38244</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="W21" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>104</v>
@@ -8112,13 +8112,13 @@
         <v>1080</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BD21" s="1">
         <v>1900</v>
       </c>
       <c r="BE21" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF21" s="1">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>180</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ21" s="1">
         <v>150</v>
@@ -8160,16 +8160,16 @@
         <v>3700</v>
       </c>
       <c r="BS21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BT21" s="1">
         <v>400</v>
       </c>
       <c r="BU21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV21" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BW21" s="1">
         <v>2</v>
@@ -8202,19 +8202,19 @@
         <v>115</v>
       </c>
       <c r="CH21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ21" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CK21" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CL21" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="CL21" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="CM21" s="1" t="s">
         <v>127</v>
@@ -8232,10 +8232,10 @@
         <v>45128.840138472224</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>92</v>
@@ -8262,13 +8262,13 @@
         <v>97</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M22" s="1">
         <v>2023040123</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O22" s="1">
         <v>11983807368</v>
@@ -8292,10 +8292,10 @@
         <v>101</v>
       </c>
       <c r="V22" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W22" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>104</v>
@@ -8424,7 +8424,7 @@
         <v>629</v>
       </c>
       <c r="BQ22" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BR22" s="1">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>400</v>
       </c>
       <c r="BU22" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BW22" s="1">
         <v>0</v>
@@ -8487,7 +8487,7 @@
         <v>146</v>
       </c>
       <c r="CN22" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CO22" s="1" t="str">
         <f>IFERROR(VLOOKUP(N22,#REF!,24,0), "erro")</f>
@@ -8499,10 +8499,10 @@
         <v>45128.8450787037</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>92</v>
@@ -8526,22 +8526,22 @@
         <v>97</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="M23" s="1">
         <v>2023040042</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O23" s="1">
         <v>11910932241</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>93</v>
@@ -8559,10 +8559,10 @@
         <v>101</v>
       </c>
       <c r="V23" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W23" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>104</v>
@@ -8644,25 +8644,25 @@
         <v>517250000</v>
       </c>
       <c r="AY23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="AZ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE23" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="BF23" s="1">
         <v>75</v>
@@ -8680,7 +8680,7 @@
         <v>100</v>
       </c>
       <c r="BK23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL23" s="1" t="s">
         <v>118</v>
@@ -8710,10 +8710,10 @@
         <v>105</v>
       </c>
       <c r="BU23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV23" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW23" s="1">
         <v>0</v>
@@ -8746,13 +8746,13 @@
         <v>115</v>
       </c>
       <c r="CG23" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CH23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ23" s="1" t="s">
         <v>143</v>
@@ -8761,10 +8761,10 @@
         <v>93</v>
       </c>
       <c r="CL23" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CM23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CN23" s="1" t="s">
         <v>146</v>
@@ -8779,10 +8779,10 @@
         <v>45128.850752627317</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>92</v>
@@ -8809,13 +8809,13 @@
         <v>97</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M24" s="1">
         <v>2023040110</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O24" s="1">
         <v>11983049118</v>
@@ -8839,13 +8839,13 @@
         <v>101</v>
       </c>
       <c r="V24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="W24" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="X24" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>105</v>
@@ -8942,7 +8942,7 @@
         <v>48</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH24" s="1">
         <v>98</v>
@@ -8957,13 +8957,13 @@
         <v>115</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM24" s="1">
         <v>90</v>
       </c>
       <c r="BN24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO24" s="1">
         <v>0</v>
@@ -8984,10 +8984,10 @@
         <v>40</v>
       </c>
       <c r="BU24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV24" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BW24" s="1">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>126</v>
       </c>
       <c r="CM24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CN24" s="1" t="s">
         <v>128</v>
@@ -9050,10 +9050,10 @@
         <v>45128.855094247687</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>92</v>
@@ -9077,16 +9077,16 @@
         <v>96</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M25" s="1">
         <v>2023040094</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O25" s="1">
         <v>11952543153</v>
@@ -9110,10 +9110,10 @@
         <v>101</v>
       </c>
       <c r="V25" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="W25" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>104</v>
@@ -9225,7 +9225,7 @@
         <v>45</v>
       </c>
       <c r="BK25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL25" s="1" t="s">
         <v>118</v>
@@ -9243,7 +9243,7 @@
         <v>50</v>
       </c>
       <c r="BQ25" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BR25" s="1">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>120</v>
       </c>
       <c r="BV25" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW25" s="1">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>126</v>
       </c>
       <c r="CM25" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CN25" s="1" t="s">
         <v>128</v>
@@ -9318,10 +9318,10 @@
         <v>45128.880909930551</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>92</v>
@@ -9330,7 +9330,7 @@
         <v>93</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -9345,16 +9345,16 @@
         <v>97</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M26" s="1">
         <v>2023040014</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O26" s="1">
         <v>11944737028</v>
@@ -9375,10 +9375,10 @@
         <v>101</v>
       </c>
       <c r="V26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="W26" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>104</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP26" s="1">
         <v>0</v>
@@ -9457,7 +9457,7 @@
         <v>1000000000</v>
       </c>
       <c r="AY26" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AZ26" s="1">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BF26" s="1">
         <v>96</v>
@@ -9493,7 +9493,7 @@
         <v>100</v>
       </c>
       <c r="BK26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL26" s="1" t="s">
         <v>118</v>
@@ -9523,7 +9523,7 @@
         <v>700</v>
       </c>
       <c r="BU26" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BW26" s="1">
         <v>1</v>
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="BZ26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA26" s="1">
         <v>0</v>
       </c>
       <c r="CB26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CC26" s="1">
         <v>0</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CE26" s="1">
         <v>0</v>
@@ -9556,13 +9556,13 @@
         <v>115</v>
       </c>
       <c r="CG26" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="CH26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ26" s="1" t="s">
         <v>143</v>
@@ -9589,10 +9589,10 @@
         <v>45128.886699872688</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>92</v>
@@ -9616,16 +9616,16 @@
         <v>96</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M27" s="1">
         <v>2023040120</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O27" s="1">
         <v>11977769228</v>
@@ -9643,16 +9643,16 @@
         <v>38302</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V27" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="W27" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>104</v>
@@ -9728,7 +9728,7 @@
         <v>600</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AX27" s="6">
         <v>738000000</v>
@@ -9743,7 +9743,7 @@
         <v>800</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BD27" s="1">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH27" s="1">
         <v>121</v>
@@ -9767,10 +9767,10 @@
         <v>70</v>
       </c>
       <c r="BK27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BM27" s="1">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>115</v>
       </c>
       <c r="CG27" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="CH27" s="1" t="s">
         <v>124</v>
@@ -9848,10 +9848,10 @@
         <v>126</v>
       </c>
       <c r="CM27" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CN27" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CO27" s="1" t="str">
         <f>IFERROR(VLOOKUP(N27,#REF!,24,0), "erro")</f>
@@ -9863,10 +9863,10 @@
         <v>45128.890114016205</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>92</v>
@@ -9875,7 +9875,7 @@
         <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -9893,13 +9893,13 @@
         <v>96</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M28" s="1">
         <v>2023040080</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O28" s="1">
         <v>11948849446</v>
@@ -9923,13 +9923,13 @@
         <v>101</v>
       </c>
       <c r="V28" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="W28" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="X28" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>105</v>
@@ -9995,7 +9995,7 @@
         <v>2500</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV28" s="1">
         <v>0</v>
@@ -10016,13 +10016,13 @@
         <v>842</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BD28" s="1">
         <v>0</v>
       </c>
       <c r="BE28" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BF28" s="1">
         <v>151</v>
@@ -10034,22 +10034,22 @@
         <v>150</v>
       </c>
       <c r="BI28" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ28" s="1">
         <v>200</v>
       </c>
       <c r="BK28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM28" s="1">
         <v>100</v>
       </c>
       <c r="BN28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO28" s="1">
         <v>120</v>
@@ -10058,7 +10058,7 @@
         <v>839</v>
       </c>
       <c r="BQ28" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BR28" s="1">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>120</v>
       </c>
       <c r="BV28" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BW28" s="1">
         <v>1</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="BZ28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA28" s="1">
         <v>662</v>
@@ -10103,10 +10103,10 @@
         <v>1200</v>
       </c>
       <c r="CF28" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="CG28" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="CG28" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="CH28" s="1" t="s">
         <v>124</v>
@@ -10139,10 +10139,10 @@
         <v>45128.893055057866</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>92</v>
@@ -10166,16 +10166,16 @@
         <v>96</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M29" s="1">
         <v>2023040134</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O29" s="1">
         <v>11949218559</v>
@@ -10199,10 +10199,10 @@
         <v>101</v>
       </c>
       <c r="V29" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="W29" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>104</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP29" s="1">
         <v>1751</v>
@@ -10281,7 +10281,7 @@
         <v>583666667</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AZ29" s="1">
         <v>0</v>
@@ -10311,16 +10311,16 @@
         <v>0</v>
       </c>
       <c r="BI29" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BJ29" s="1">
         <v>150</v>
       </c>
       <c r="BK29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM29" s="1">
         <v>0</v>
@@ -10350,40 +10350,40 @@
         <v>120</v>
       </c>
       <c r="BV29" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="BW29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG29" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="BW29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CG29" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="CH29" s="1" t="s">
         <v>124</v>
@@ -10419,7 +10419,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>92</v>
@@ -10443,16 +10443,16 @@
         <v>97</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M30" s="1">
         <v>2023040060</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O30" s="1">
         <v>11958401396</v>
@@ -10476,10 +10476,10 @@
         <v>101</v>
       </c>
       <c r="V30" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="W30" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>104</v>
@@ -10560,7 +10560,7 @@
         <v>851200000</v>
       </c>
       <c r="AY30" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AZ30" s="1">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BF30" s="1">
         <v>19</v>
@@ -10629,7 +10629,7 @@
         <v>120</v>
       </c>
       <c r="BV30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BW30" s="1">
         <v>1</v>
@@ -10677,7 +10677,7 @@
         <v>126</v>
       </c>
       <c r="CM30" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CN30" s="1" t="s">
         <v>127</v>
@@ -10692,10 +10692,10 @@
         <v>45128.895047673606</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>92</v>
@@ -10722,13 +10722,13 @@
         <v>97</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M31" s="1">
         <v>2023040100</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O31" s="1">
         <v>11954535458</v>
@@ -10752,10 +10752,10 @@
         <v>101</v>
       </c>
       <c r="V31" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="W31" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>104</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB31" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD31" s="1">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>115</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM31" s="1">
         <v>97</v>
@@ -10885,7 +10885,7 @@
         <v>603</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BR31" s="1">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>120</v>
       </c>
       <c r="BV31" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BW31" s="1">
         <v>0</v>
@@ -10948,7 +10948,7 @@
         <v>128</v>
       </c>
       <c r="CN31" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO31" s="1" t="str">
         <f>IFERROR(VLOOKUP(N31,#REF!,24,0), "erro")</f>
@@ -10960,10 +10960,10 @@
         <v>45128.906171828705</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>92</v>
@@ -10987,16 +10987,16 @@
         <v>96</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M32" s="1">
         <v>2023040129</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O32" s="1">
         <v>11959188618</v>
@@ -11014,16 +11014,16 @@
         <v>38750</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V32" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="W32" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>104</v>
@@ -11093,37 +11093,37 @@
         <v>3000</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV32" s="1">
         <v>500</v>
       </c>
       <c r="AW32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX32" s="6">
         <v>400000000</v>
       </c>
       <c r="AY32" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
       </c>
       <c r="BA32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BB32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="BD32" s="1">
         <v>0</v>
       </c>
       <c r="BE32" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BF32" s="1">
         <v>150</v>
@@ -11141,7 +11141,7 @@
         <v>50</v>
       </c>
       <c r="BK32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL32" s="1" t="s">
         <v>118</v>
@@ -11150,7 +11150,7 @@
         <v>120</v>
       </c>
       <c r="BN32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO32" s="1">
         <v>0</v>
@@ -11171,10 +11171,10 @@
         <v>360</v>
       </c>
       <c r="BU32" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BV32" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BW32" s="1">
         <v>0</v>
@@ -11222,10 +11222,10 @@
         <v>126</v>
       </c>
       <c r="CM32" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CN32" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO32" s="1" t="str">
         <f>IFERROR(VLOOKUP(N32,#REF!,24,0), "erro")</f>
@@ -11237,10 +11237,10 @@
         <v>45128.907577002319</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>92</v>
@@ -11249,7 +11249,7 @@
         <v>93</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>94</v>
@@ -11267,13 +11267,13 @@
         <v>97</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M33" s="1">
         <v>2023040115</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O33" s="1">
         <v>11981090577</v>
@@ -11297,10 +11297,10 @@
         <v>101</v>
       </c>
       <c r="V33" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="W33" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>104</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>600</v>
       </c>
       <c r="BE33" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF33" s="1">
         <v>166</v>
@@ -11436,7 +11436,7 @@
         <v>156</v>
       </c>
       <c r="BS33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BT33" s="1">
         <v>80</v>
@@ -11445,7 +11445,7 @@
         <v>120</v>
       </c>
       <c r="BV33" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BW33" s="1">
         <v>1</v>
@@ -11457,19 +11457,19 @@
         <v>0</v>
       </c>
       <c r="BZ33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA33" s="1">
         <v>0</v>
       </c>
       <c r="CB33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CC33" s="1">
         <v>0</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CE33" s="1">
         <v>0</v>
@@ -11505,10 +11505,10 @@
         <v>45128.907643854167</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>92</v>
@@ -11517,7 +11517,7 @@
         <v>93</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -11535,19 +11535,19 @@
         <v>96</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M34" s="1">
         <v>2023040038</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O34" s="1">
         <v>11962702006</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>93</v>
@@ -11565,13 +11565,13 @@
         <v>101</v>
       </c>
       <c r="V34" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="W34" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="W34" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="X34" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>105</v>
@@ -11601,13 +11601,13 @@
         <v>660</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK34" s="1">
         <v>1200</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM34" s="1">
         <v>4200</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP34" s="1">
         <v>0</v>
@@ -11644,20 +11644,20 @@
         <v>109</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AZ34" s="1">
         <v>0</v>
       </c>
       <c r="BA34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BB34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="BD34" s="1">
         <v>0</v>
       </c>
@@ -11668,19 +11668,19 @@
         <v>0</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BH34" s="1">
         <v>0</v>
       </c>
       <c r="BI34" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BJ34" s="1">
         <v>206</v>
       </c>
       <c r="BK34" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BL34" s="1" t="s">
         <v>118</v>
@@ -11689,7 +11689,7 @@
         <v>311</v>
       </c>
       <c r="BN34" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BO34" s="1">
         <v>250</v>
@@ -11698,7 +11698,7 @@
         <v>400</v>
       </c>
       <c r="BQ34" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BR34" s="1">
         <v>0</v>
@@ -11710,10 +11710,10 @@
         <v>510</v>
       </c>
       <c r="BU34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV34" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BW34" s="1">
         <v>1</v>
@@ -11725,19 +11725,19 @@
         <v>1144</v>
       </c>
       <c r="BZ34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA34" s="1">
         <v>0</v>
       </c>
       <c r="CB34" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CC34" s="1">
         <v>0</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CE34" s="1">
         <v>0</v>
@@ -11746,19 +11746,19 @@
         <v>115</v>
       </c>
       <c r="CG34" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="CH34" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CI34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ34" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CK34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CL34" s="1" t="s">
         <v>126</v>
@@ -11767,7 +11767,7 @@
         <v>127</v>
       </c>
       <c r="CN34" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO34" s="1" t="str">
         <f>IFERROR(VLOOKUP(N34,#REF!,24,0), "erro")</f>
@@ -11779,10 +11779,10 @@
         <v>45128.937023368053</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>92</v>
@@ -11809,13 +11809,13 @@
         <v>96</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M35" s="1">
         <v>2023040037</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O35" s="1">
         <v>11945897468</v>
@@ -11833,16 +11833,16 @@
         <v>37566</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V35" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="W35" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>104</v>
@@ -11915,7 +11915,7 @@
         <v>709</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX35" s="6">
         <v>462500000</v>
@@ -11936,7 +11936,7 @@
         <v>5000</v>
       </c>
       <c r="BE35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BF35" s="1">
         <v>154</v>
@@ -11954,10 +11954,10 @@
         <v>60</v>
       </c>
       <c r="BK35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BM35" s="1">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>120</v>
       </c>
       <c r="BV35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BW35" s="1">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>126</v>
       </c>
       <c r="CM35" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CN35" s="1" t="s">
         <v>146</v>
@@ -12050,10 +12050,10 @@
         <v>45128.940207222222</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>92</v>
@@ -12062,7 +12062,7 @@
         <v>93</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>94</v>
@@ -12080,13 +12080,13 @@
         <v>97</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M36" s="1">
         <v>2023040062</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O36" s="1">
         <v>11981230733</v>
@@ -12110,13 +12110,13 @@
         <v>101</v>
       </c>
       <c r="V36" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="W36" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="W36" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="X36" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>105</v>
@@ -12195,25 +12195,25 @@
         <v>457142857</v>
       </c>
       <c r="AY36" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AZ36" s="1">
         <v>0</v>
       </c>
       <c r="BA36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BB36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="BD36" s="1">
         <v>0</v>
       </c>
       <c r="BE36" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BF36" s="1">
         <v>239</v>
@@ -12231,7 +12231,7 @@
         <v>36</v>
       </c>
       <c r="BK36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL36" s="1" t="s">
         <v>118</v>
@@ -12264,7 +12264,7 @@
         <v>120</v>
       </c>
       <c r="BV36" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BW36" s="1">
         <v>0</v>
@@ -12276,7 +12276,7 @@
         <v>130</v>
       </c>
       <c r="BZ36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA36" s="1">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>115</v>
       </c>
       <c r="CG36" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="CH36" s="1" t="s">
         <v>124</v>
@@ -12312,7 +12312,7 @@
         <v>126</v>
       </c>
       <c r="CM36" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CN36" s="1" t="s">
         <v>146</v>
@@ -12327,10 +12327,10 @@
         <v>45128.944350266203</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>92</v>
@@ -12339,7 +12339,7 @@
         <v>93</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -12357,19 +12357,19 @@
         <v>96</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M37" s="1">
         <v>2023040056</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O37" s="1">
         <v>11942064170</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>93</v>
@@ -12387,10 +12387,10 @@
         <v>101</v>
       </c>
       <c r="V37" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="W37" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>104</v>
@@ -12534,7 +12534,7 @@
         <v>120</v>
       </c>
       <c r="BV37" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BW37" s="1">
         <v>0</v>
@@ -12594,10 +12594,10 @@
         <v>45128.946312511573</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
@@ -12606,7 +12606,7 @@
         <v>92</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -12621,22 +12621,22 @@
         <v>97</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M38" s="1">
         <v>2023040063</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O38" s="1">
         <v>11916384362</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>93</v>
@@ -12654,13 +12654,13 @@
         <v>101</v>
       </c>
       <c r="V38" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="W38" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="W38" s="5" t="s">
+      <c r="X38" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>105</v>
@@ -12699,7 +12699,7 @@
         <v>1500</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM38" s="1">
         <v>1500</v>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP38" s="1">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>1400000000</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AZ38" s="1">
         <v>0</v>
@@ -12778,7 +12778,7 @@
         <v>115</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BM38" s="1">
         <v>100</v>
@@ -12808,7 +12808,7 @@
         <v>120</v>
       </c>
       <c r="BV38" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW38" s="1">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>115</v>
       </c>
       <c r="CG38" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CH38" s="1" t="s">
         <v>124</v>
@@ -12874,10 +12874,10 @@
         <v>45128.958784282411</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>92</v>
@@ -12886,7 +12886,7 @@
         <v>93</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -12904,13 +12904,13 @@
         <v>97</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M39" s="1">
         <v>2023040135</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O39" s="1">
         <v>11965261196</v>
@@ -12934,10 +12934,10 @@
         <v>101</v>
       </c>
       <c r="V39" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="W39" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>104</v>
@@ -13028,7 +13028,7 @@
         <v>700</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BD39" s="1">
         <v>0</v>
@@ -13046,7 +13046,7 @@
         <v>80</v>
       </c>
       <c r="BI39" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ39" s="1">
         <v>0</v>
@@ -13055,13 +13055,13 @@
         <v>115</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM39" s="1">
         <v>90</v>
       </c>
       <c r="BN39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO39" s="1">
         <v>100</v>
@@ -13145,10 +13145,10 @@
         <v>45128.960343125</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>92</v>
@@ -13157,7 +13157,7 @@
         <v>93</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -13175,13 +13175,13 @@
         <v>97</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M40" s="1">
         <v>2023040015</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O40" s="1">
         <v>11914473198</v>
@@ -13205,10 +13205,10 @@
         <v>101</v>
       </c>
       <c r="V40" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="W40" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>104</v>
@@ -13223,7 +13223,7 @@
         <v>107</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>92</v>
@@ -13323,10 +13323,10 @@
         <v>40</v>
       </c>
       <c r="BK40" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM40" s="1">
         <v>0</v>
@@ -13347,46 +13347,46 @@
         <v>13</v>
       </c>
       <c r="BS40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CH40" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="BT40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BW40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CC40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CH40" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="CI40" s="1" t="s">
         <v>124</v>
@@ -13398,7 +13398,7 @@
         <v>126</v>
       </c>
       <c r="CM40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CN40" s="1" t="s">
         <v>146</v>
@@ -13413,10 +13413,10 @@
         <v>45128.964567847222</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>92</v>
@@ -13425,7 +13425,7 @@
         <v>93</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -13443,13 +13443,13 @@
         <v>96</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M41" s="1">
         <v>2023040088</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O41" s="1">
         <v>13991101322</v>
@@ -13473,10 +13473,10 @@
         <v>101</v>
       </c>
       <c r="V41" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="W41" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>104</v>
@@ -13575,13 +13575,13 @@
         <v>0</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BH41" s="1">
         <v>350</v>
       </c>
       <c r="BI41" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ41" s="1">
         <v>524</v>
@@ -13596,7 +13596,7 @@
         <v>350</v>
       </c>
       <c r="BN41" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO41" s="1">
         <v>0</v>
@@ -13617,10 +13617,10 @@
         <v>375</v>
       </c>
       <c r="BU41" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BV41" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW41" s="1">
         <v>0</v>
@@ -13650,13 +13650,13 @@
         <v>1500</v>
       </c>
       <c r="CF41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CH41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ41" s="1" t="s">
         <v>143</v>
@@ -13683,10 +13683,10 @@
         <v>45128.968835347223</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>92</v>
@@ -13695,7 +13695,7 @@
         <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -13710,16 +13710,16 @@
         <v>96</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M42" s="1">
         <v>2023040036</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O42" s="1">
         <v>11946350819</v>
@@ -13743,10 +13743,10 @@
         <v>101</v>
       </c>
       <c r="V42" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="W42" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>104</v>
@@ -13828,13 +13828,13 @@
         <v>0</v>
       </c>
       <c r="BA42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC42" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD42" s="1">
         <v>0</v>
@@ -13858,10 +13858,10 @@
         <v>30</v>
       </c>
       <c r="BK42" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BM42" s="1">
         <v>0</v>
@@ -13891,7 +13891,7 @@
         <v>120</v>
       </c>
       <c r="BV42" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BW42" s="1">
         <v>0</v>
@@ -13936,7 +13936,7 @@
         <v>126</v>
       </c>
       <c r="CM42" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CN42" s="1" t="s">
         <v>146</v>
@@ -13951,10 +13951,10 @@
         <v>45129.648828483798</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>92</v>
@@ -13981,13 +13981,13 @@
         <v>97</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M43" s="1">
         <v>2023040018</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O43" s="1">
         <v>11985626743</v>
@@ -14011,13 +14011,13 @@
         <v>101</v>
       </c>
       <c r="V43" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="W43" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="W43" s="5" t="s">
+      <c r="X43" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>105</v>
@@ -14129,7 +14129,7 @@
         <v>115</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BM43" s="1">
         <v>35</v>
@@ -14150,7 +14150,7 @@
         <v>160</v>
       </c>
       <c r="BS43" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BT43" s="1">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>141</v>
       </c>
       <c r="CI43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ43" s="1" t="s">
         <v>143</v>
@@ -14219,10 +14219,10 @@
         <v>45129.651955034722</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>92</v>
@@ -14246,16 +14246,16 @@
         <v>97</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M44" s="1">
         <v>2023040049</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O44" s="1">
         <v>11957973917</v>
@@ -14279,10 +14279,10 @@
         <v>101</v>
       </c>
       <c r="V44" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W44" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>104</v>
@@ -14297,7 +14297,7 @@
         <v>107</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>93</v>
@@ -14366,7 +14366,7 @@
         <v>1737333333</v>
       </c>
       <c r="AY44" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AZ44" s="1">
         <v>1</v>
@@ -14378,7 +14378,7 @@
         <v>300</v>
       </c>
       <c r="BC44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BD44" s="1">
         <v>0</v>
@@ -14390,13 +14390,13 @@
         <v>75</v>
       </c>
       <c r="BG44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI44" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="BH44" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI44" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="BJ44" s="1">
         <v>13</v>
@@ -14450,22 +14450,22 @@
         <v>2840</v>
       </c>
       <c r="CB44" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="CC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG44" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="CC44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CG44" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="CH44" s="1" t="s">
         <v>141</v>
@@ -14477,10 +14477,10 @@
         <v>125</v>
       </c>
       <c r="CK44" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CL44" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CM44" s="1" t="s">
         <v>128</v>
@@ -14498,10 +14498,10 @@
         <v>45129.668242719912</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>92</v>
@@ -14510,7 +14510,7 @@
         <v>93</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -14528,13 +14528,13 @@
         <v>96</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M45" s="1">
         <v>2023040024</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O45" s="1">
         <v>11975872147</v>
@@ -14558,13 +14558,13 @@
         <v>101</v>
       </c>
       <c r="V45" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="W45" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="W45" s="5" t="s">
-        <v>536</v>
-      </c>
       <c r="X45" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>105</v>
@@ -14600,7 +14600,7 @@
         <v>2000</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM45" s="1">
         <v>2000</v>
@@ -14610,13 +14610,13 @@
         <v>0</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP45" s="1">
         <v>1300</v>
       </c>
       <c r="AQ45" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR45" s="1">
         <v>0</v>
@@ -14637,7 +14637,7 @@
         <v>109</v>
       </c>
       <c r="AX45" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AZ45" s="1">
         <v>0</v>
@@ -14661,13 +14661,13 @@
         <v>80</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH45" s="1">
         <v>80</v>
       </c>
       <c r="BI45" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ45" s="1">
         <v>0</v>
@@ -14676,7 +14676,7 @@
         <v>115</v>
       </c>
       <c r="BL45" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM45" s="1">
         <v>0</v>
@@ -14706,7 +14706,7 @@
         <v>120</v>
       </c>
       <c r="BV45" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="BW45" s="1">
         <v>1</v>
@@ -14748,10 +14748,10 @@
         <v>143</v>
       </c>
       <c r="CL45" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CM45" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CN45" s="1" t="s">
         <v>127</v>
@@ -14766,10 +14766,10 @@
         <v>45129.674534907404</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>92</v>
@@ -14778,7 +14778,7 @@
         <v>92</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G46" s="1">
         <v>2</v>
@@ -14796,13 +14796,13 @@
         <v>97</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M46" s="1">
         <v>2023040017</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O46" s="1">
         <v>11972243690</v>
@@ -14820,19 +14820,19 @@
         <v>37774</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V46" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="W46" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="W46" s="5" t="s">
+      <c r="X46" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>105</v>
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BF46" s="1">
         <v>48</v>
@@ -14941,7 +14941,7 @@
         <v>130</v>
       </c>
       <c r="BK46" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL46" s="1" t="s">
         <v>118</v>
@@ -14950,7 +14950,7 @@
         <v>40</v>
       </c>
       <c r="BN46" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO46" s="1">
         <v>233</v>
@@ -14965,7 +14965,7 @@
         <v>140</v>
       </c>
       <c r="BS46" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BT46" s="1">
         <v>116</v>
@@ -14974,7 +14974,7 @@
         <v>120</v>
       </c>
       <c r="BV46" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW46" s="1">
         <v>1</v>
@@ -14986,7 +14986,7 @@
         <v>820</v>
       </c>
       <c r="BZ46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA46" s="1">
         <v>0</v>
@@ -15010,7 +15010,7 @@
         <v>124</v>
       </c>
       <c r="CI46" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ46" s="1" t="s">
         <v>143</v>
@@ -15019,13 +15019,13 @@
         <v>144</v>
       </c>
       <c r="CL46" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CM46" s="1" t="s">
         <v>128</v>
       </c>
       <c r="CN46" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CO46" s="1" t="str">
         <f>IFERROR(VLOOKUP(N46,#REF!,24,0), "erro")</f>
@@ -15037,10 +15037,10 @@
         <v>45129.714536782412</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>92</v>
@@ -15067,13 +15067,13 @@
         <v>97</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M47" s="1">
         <v>2023040111</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O47" s="1">
         <v>27988843964</v>
@@ -15097,10 +15097,10 @@
         <v>101</v>
       </c>
       <c r="V47" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="W47" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>104</v>
@@ -15167,7 +15167,7 @@
         <v>700</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV47" s="1">
         <v>800</v>
@@ -15176,7 +15176,7 @@
         <v>110</v>
       </c>
       <c r="AX47" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AZ47" s="1">
         <v>1</v>
@@ -15194,7 +15194,7 @@
         <v>80</v>
       </c>
       <c r="BE47" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF47" s="1">
         <v>26</v>
@@ -15245,7 +15245,7 @@
         <v>120</v>
       </c>
       <c r="BV47" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW47" s="1">
         <v>0</v>
@@ -15278,7 +15278,7 @@
         <v>115</v>
       </c>
       <c r="CG47" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="CH47" s="1" t="s">
         <v>124</v>
@@ -15308,10 +15308,10 @@
         <v>45129.736465787035</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>92</v>
@@ -15338,13 +15338,13 @@
         <v>96</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M48" s="1">
         <v>2023040113</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O48" s="1">
         <v>11992726395</v>
@@ -15362,16 +15362,16 @@
         <v>37674</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V48" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="W48" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>104</v>
@@ -15444,25 +15444,25 @@
         <v>335</v>
       </c>
       <c r="AW48" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AX48" s="6">
         <v>400000000</v>
       </c>
       <c r="AY48" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AZ48" s="1">
         <v>0</v>
       </c>
       <c r="BA48" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
       </c>
       <c r="BC48" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BD48" s="1">
         <v>0</v>
@@ -15480,13 +15480,13 @@
         <v>0</v>
       </c>
       <c r="BI48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ48" s="1">
         <v>30</v>
       </c>
       <c r="BK48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL48" s="1" t="s">
         <v>118</v>
@@ -15495,7 +15495,7 @@
         <v>40</v>
       </c>
       <c r="BN48" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO48" s="1">
         <v>300</v>
@@ -15510,7 +15510,7 @@
         <v>70</v>
       </c>
       <c r="BS48" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BT48" s="1">
         <v>55</v>
@@ -15519,7 +15519,7 @@
         <v>120</v>
       </c>
       <c r="BV48" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW48" s="1">
         <v>0</v>
@@ -15579,10 +15579,10 @@
         <v>45129.752613414355</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>92</v>
@@ -15609,13 +15609,13 @@
         <v>96</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M49" s="1">
         <v>2023040053</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O49" s="1">
         <v>11976484645</v>
@@ -15633,16 +15633,16 @@
         <v>38420</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V49" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="W49" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>104</v>
@@ -15721,7 +15721,7 @@
         <v>2337000000</v>
       </c>
       <c r="AY49" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AZ49" s="1">
         <v>0</v>
@@ -15733,13 +15733,13 @@
         <v>800</v>
       </c>
       <c r="BC49" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BD49" s="1">
         <v>1200</v>
       </c>
       <c r="BE49" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF49" s="1">
         <v>74</v>
@@ -15781,16 +15781,16 @@
         <v>950</v>
       </c>
       <c r="BS49" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BT49" s="1">
         <v>400</v>
       </c>
       <c r="BU49" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV49" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="BW49" s="1">
         <v>1</v>
@@ -15835,7 +15835,7 @@
         <v>126</v>
       </c>
       <c r="CM49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CN49" s="1" t="s">
         <v>146</v>
@@ -15850,10 +15850,10 @@
         <v>45129.763358993056</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>92</v>
@@ -15862,7 +15862,7 @@
         <v>93</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>94</v>
@@ -15880,13 +15880,13 @@
         <v>97</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M50" s="1">
         <v>2023040007</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O50" s="1">
         <v>11985641143</v>
@@ -15910,13 +15910,13 @@
         <v>101</v>
       </c>
       <c r="V50" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="W50" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="W50" s="5" t="s">
-        <v>575</v>
-      </c>
       <c r="X50" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>105</v>
@@ -15955,7 +15955,7 @@
         <v>1909</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM50" s="1">
         <v>1281</v>
@@ -15995,7 +15995,7 @@
         <v>640500000</v>
       </c>
       <c r="AY50" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AZ50" s="1">
         <v>0</v>
@@ -16007,7 +16007,7 @@
         <v>1100</v>
       </c>
       <c r="BC50" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BD50" s="1">
         <v>0</v>
@@ -16019,7 +16019,7 @@
         <v>131</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BH50" s="1">
         <v>181</v>
@@ -16031,7 +16031,7 @@
         <v>130</v>
       </c>
       <c r="BK50" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL50" s="1" t="s">
         <v>118</v>
@@ -16064,7 +16064,7 @@
         <v>120</v>
       </c>
       <c r="BV50" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BW50" s="1">
         <v>1</v>
@@ -16097,7 +16097,7 @@
         <v>115</v>
       </c>
       <c r="CG50" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="CH50" s="1" t="s">
         <v>124</v>
@@ -16109,10 +16109,10 @@
         <v>125</v>
       </c>
       <c r="CL50" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CM50" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CN50" s="1" t="s">
         <v>128</v>
@@ -16127,10 +16127,10 @@
         <v>45129.786558055552</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>92</v>
@@ -16151,19 +16151,19 @@
         <v>95</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M51" s="1">
         <v>2023040106</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O51" s="1">
         <v>11964497205</v>
@@ -16187,13 +16187,13 @@
         <v>101</v>
       </c>
       <c r="V51" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="W51" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="W51" s="5" t="s">
-        <v>584</v>
-      </c>
       <c r="X51" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>105</v>
@@ -16272,19 +16272,19 @@
         <v>0</v>
       </c>
       <c r="BA51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD51" s="1">
         <v>205</v>
       </c>
       <c r="BE51" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF51" s="1">
         <v>145</v>
@@ -16335,7 +16335,7 @@
         <v>120</v>
       </c>
       <c r="BV51" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BW51" s="1">
         <v>0</v>
@@ -16395,10 +16395,10 @@
         <v>45129.78854256944</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>92</v>
@@ -16425,19 +16425,19 @@
         <v>96</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M52" s="1">
         <v>2023040039</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O52" s="1">
         <v>11978440076</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>93</v>
@@ -16455,10 +16455,10 @@
         <v>101</v>
       </c>
       <c r="V52" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="W52" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="W52" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>104</v>
@@ -16551,7 +16551,7 @@
         <v>100</v>
       </c>
       <c r="BE52" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF52" s="1">
         <v>76</v>
@@ -16593,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="BS52" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BT52" s="1">
         <v>45</v>
@@ -16602,7 +16602,7 @@
         <v>120</v>
       </c>
       <c r="BV52" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BW52" s="1">
         <v>0</v>
@@ -16635,13 +16635,13 @@
         <v>115</v>
       </c>
       <c r="CG52" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="CH52" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI52" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ52" s="1" t="s">
         <v>143</v>
@@ -16668,10 +16668,10 @@
         <v>45129.79112918982</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>92</v>
@@ -16698,13 +16698,13 @@
         <v>96</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M53" s="1">
         <v>2023040112</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O53" s="1">
         <v>11964068267</v>
@@ -16728,10 +16728,10 @@
         <v>101</v>
       </c>
       <c r="V53" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="W53" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="W53" s="5" t="s">
-        <v>599</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>104</v>
@@ -16813,13 +16813,13 @@
         <v>0</v>
       </c>
       <c r="BA53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD53" s="1">
         <v>0</v>
@@ -16846,7 +16846,7 @@
         <v>115</v>
       </c>
       <c r="BL53" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM53" s="1">
         <v>80</v>
@@ -16867,7 +16867,7 @@
         <v>359</v>
       </c>
       <c r="BS53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BT53" s="1">
         <v>60</v>
@@ -16876,7 +16876,7 @@
         <v>120</v>
       </c>
       <c r="BV53" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BW53" s="1">
         <v>0</v>
@@ -16909,22 +16909,22 @@
         <v>123</v>
       </c>
       <c r="CH53" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI53" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ53" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CK53" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="CL53" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CM53" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CN53" s="1" t="s">
         <v>127</v>
@@ -16939,10 +16939,10 @@
         <v>45129.795139108799</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>92</v>
@@ -16969,13 +16969,13 @@
         <v>97</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M54" s="1">
         <v>2023040095</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O54" s="1">
         <v>11980347463</v>
@@ -16999,10 +16999,10 @@
         <v>101</v>
       </c>
       <c r="V54" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="W54" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="W54" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>104</v>
@@ -17084,13 +17084,13 @@
         <v>0</v>
       </c>
       <c r="BA54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC54" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB54" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC54" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD54" s="1">
         <v>0</v>
@@ -17117,13 +17117,13 @@
         <v>115</v>
       </c>
       <c r="BL54" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM54" s="1">
         <v>120</v>
       </c>
       <c r="BN54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO54" s="1">
         <v>250</v>
@@ -17147,7 +17147,7 @@
         <v>120</v>
       </c>
       <c r="BV54" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BW54" s="1">
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>126</v>
       </c>
       <c r="CM54" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CN54" s="1" t="s">
         <v>146</v>
@@ -17207,10 +17207,10 @@
         <v>45129.801003553242</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>92</v>
@@ -17219,7 +17219,7 @@
         <v>92</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -17237,13 +17237,13 @@
         <v>96</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M55" s="1">
         <v>2023040071</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O55" s="1">
         <v>11958660780</v>
@@ -17267,10 +17267,10 @@
         <v>101</v>
       </c>
       <c r="V55" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="W55" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="W55" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>104</v>
@@ -17370,7 +17370,7 @@
         <v>70</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH55" s="1">
         <v>94</v>
@@ -17415,7 +17415,7 @@
         <v>120</v>
       </c>
       <c r="BV55" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BW55" s="1">
         <v>0</v>
@@ -17460,7 +17460,7 @@
         <v>126</v>
       </c>
       <c r="CM55" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CN55" s="1" t="s">
         <v>146</v>
@@ -17475,10 +17475,10 @@
         <v>45129.847969502312</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>92</v>
@@ -17505,13 +17505,13 @@
         <v>96</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M56" s="1">
         <v>2023040048</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O56" s="1">
         <v>11949368648</v>
@@ -17535,13 +17535,13 @@
         <v>101</v>
       </c>
       <c r="V56" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="W56" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="W56" s="5" t="s">
-        <v>620</v>
-      </c>
       <c r="X56" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>105</v>
@@ -17631,7 +17631,7 @@
         <v>299</v>
       </c>
       <c r="BE56" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF56" s="1">
         <v>74</v>
@@ -17679,10 +17679,10 @@
         <v>350</v>
       </c>
       <c r="BU56" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BV56" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="BW56" s="1">
         <v>1</v>
@@ -17742,10 +17742,10 @@
         <v>45129.851745</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>92</v>
@@ -17772,13 +17772,13 @@
         <v>96</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M57" s="1">
         <v>2023040091</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O57" s="1">
         <v>11979680286</v>
@@ -17802,13 +17802,13 @@
         <v>101</v>
       </c>
       <c r="V57" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="W57" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="W57" s="5" t="s">
-        <v>626</v>
-      </c>
       <c r="X57" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>105</v>
@@ -17872,7 +17872,7 @@
         <v>850</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV57" s="1">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>400000000</v>
       </c>
       <c r="AY57" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AZ57" s="1">
         <v>0</v>
@@ -17902,7 +17902,7 @@
         <v>606</v>
       </c>
       <c r="BE57" s="1" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="BF57" s="1">
         <v>153</v>
@@ -17950,10 +17950,10 @@
         <v>627</v>
       </c>
       <c r="BU57" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV57" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="BW57" s="1">
         <v>0</v>
@@ -18004,7 +18004,7 @@
         <v>146</v>
       </c>
       <c r="CN57" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO57" s="1" t="str">
         <f>IFERROR(VLOOKUP(N57,#REF!,24,0), "erro")</f>
@@ -18016,10 +18016,10 @@
         <v>45129.857944884257</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>92</v>
@@ -18028,7 +18028,7 @@
         <v>93</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G58" s="1">
         <v>3</v>
@@ -18046,19 +18046,19 @@
         <v>97</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M58" s="1">
         <v>2023040055</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O58" s="1">
         <v>11947248212</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>93</v>
@@ -18076,13 +18076,13 @@
         <v>101</v>
       </c>
       <c r="V58" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="W58" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="W58" s="5" t="s">
-        <v>636</v>
-      </c>
       <c r="X58" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>105</v>
@@ -18112,13 +18112,13 @@
         <v>800</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK58" s="1">
         <v>2600</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM58" s="1">
         <v>3908</v>
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
       <c r="AO58" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP58" s="1">
         <v>0</v>
@@ -18154,10 +18154,10 @@
         <v>109</v>
       </c>
       <c r="AX58" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AY58" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AZ58" s="1">
         <v>0</v>
@@ -18169,7 +18169,7 @@
         <v>1320</v>
       </c>
       <c r="BC58" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BD58" s="1">
         <v>0</v>
@@ -18193,16 +18193,16 @@
         <v>107</v>
       </c>
       <c r="BK58" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL58" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM58" s="1">
         <v>271</v>
       </c>
       <c r="BN58" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO58" s="1">
         <v>350</v>
@@ -18211,13 +18211,13 @@
         <v>1600</v>
       </c>
       <c r="BQ58" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BR58" s="1">
         <v>2000</v>
       </c>
       <c r="BS58" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BT58" s="1">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         <v>1509</v>
       </c>
       <c r="BZ58" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA58" s="1">
         <v>8304</v>
@@ -18256,7 +18256,7 @@
         <v>115</v>
       </c>
       <c r="CG58" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="CH58" s="1" t="s">
         <v>141</v>
@@ -18286,10 +18286,10 @@
         <v>45129.862969409718</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>92</v>
@@ -18316,13 +18316,13 @@
         <v>96</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M59" s="1">
         <v>2023040061</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O59" s="1">
         <v>11992725946</v>
@@ -18349,7 +18349,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>104</v>
@@ -18388,7 +18388,7 @@
         <v>4646</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -18425,7 +18425,7 @@
         <v>109</v>
       </c>
       <c r="AX59" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AZ59" s="1">
         <v>1</v>
@@ -18437,25 +18437,25 @@
         <v>2400</v>
       </c>
       <c r="BC59" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BD59" s="1">
         <v>270</v>
       </c>
       <c r="BE59" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BF59" s="1">
         <v>100</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH59" s="1">
         <v>100</v>
       </c>
       <c r="BI59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ59" s="1">
         <v>118</v>
@@ -18485,7 +18485,7 @@
         <v>1800</v>
       </c>
       <c r="BS59" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BT59" s="1">
         <v>200</v>
@@ -18494,7 +18494,7 @@
         <v>120</v>
       </c>
       <c r="BV59" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="BW59" s="1">
         <v>1</v>
@@ -18506,7 +18506,7 @@
         <v>1300</v>
       </c>
       <c r="BZ59" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA59" s="1">
         <v>0</v>
@@ -18524,16 +18524,16 @@
         <v>40000</v>
       </c>
       <c r="CF59" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CG59" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="CH59" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI59" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ59" s="1" t="s">
         <v>143</v>
@@ -18548,7 +18548,7 @@
         <v>127</v>
       </c>
       <c r="CN59" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CO59" s="1" t="str">
         <f>IFERROR(VLOOKUP(N59,#REF!,24,0), "erro")</f>
@@ -18560,10 +18560,10 @@
         <v>45129.865983564814</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>92</v>
@@ -18572,7 +18572,7 @@
         <v>92</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G60" s="1">
         <v>3</v>
@@ -18587,16 +18587,16 @@
         <v>97</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M60" s="1">
         <v>2023040001</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O60" s="1">
         <v>11985131627</v>
@@ -18620,13 +18620,13 @@
         <v>101</v>
       </c>
       <c r="V60" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="W60" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="W60" s="5" t="s">
+      <c r="X60" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>105</v>
@@ -18701,7 +18701,7 @@
         <v>757750000</v>
       </c>
       <c r="AY60" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AZ60" s="1">
         <v>0</v>
@@ -18719,7 +18719,7 @@
         <v>320</v>
       </c>
       <c r="BE60" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BF60" s="1">
         <v>48</v>
@@ -18737,7 +18737,7 @@
         <v>60</v>
       </c>
       <c r="BK60" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL60" s="1" t="s">
         <v>118</v>
@@ -18755,7 +18755,7 @@
         <v>360</v>
       </c>
       <c r="BQ60" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BR60" s="1">
         <v>0</v>
@@ -18770,7 +18770,7 @@
         <v>120</v>
       </c>
       <c r="BV60" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="BW60" s="1">
         <v>1</v>
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="BZ60" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="CA60" s="1">
         <v>0</v>
@@ -18806,7 +18806,7 @@
         <v>124</v>
       </c>
       <c r="CI60" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ60" s="1" t="s">
         <v>143</v>
@@ -18833,10 +18833,10 @@
         <v>45129.915301655092</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>92</v>
@@ -18863,13 +18863,13 @@
         <v>96</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M61" s="1">
         <v>2023040089</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O61" s="1">
         <v>11975198651</v>
@@ -18893,10 +18893,10 @@
         <v>101</v>
       </c>
       <c r="V61" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="W61" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>104</v>
@@ -18984,7 +18984,7 @@
         <v>1000</v>
       </c>
       <c r="BC61" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BD61" s="1">
         <v>0</v>
@@ -18996,7 +18996,7 @@
         <v>70</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BH61" s="1">
         <v>56</v>
@@ -19008,10 +19008,10 @@
         <v>80</v>
       </c>
       <c r="BK61" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL61" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM61" s="1">
         <v>100</v>
@@ -19038,10 +19038,10 @@
         <v>50</v>
       </c>
       <c r="BU61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV61" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="BW61" s="1">
         <v>0</v>
@@ -19101,10 +19101,10 @@
         <v>45129.925175590281</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>92</v>
@@ -19131,13 +19131,13 @@
         <v>96</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M62" s="1">
         <v>2023040044</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O62" s="1">
         <v>11970334993</v>
@@ -19161,13 +19161,13 @@
         <v>101</v>
       </c>
       <c r="V62" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="W62" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="W62" s="5" t="s">
+      <c r="X62" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="Y62" s="1" t="s">
         <v>105</v>
@@ -19246,13 +19246,13 @@
         <v>0</v>
       </c>
       <c r="BA62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BB62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC62" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BD62" s="1">
         <v>0</v>
@@ -19309,7 +19309,7 @@
         <v>120</v>
       </c>
       <c r="BV62" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="BW62" s="1">
         <v>0</v>
@@ -19354,7 +19354,7 @@
         <v>126</v>
       </c>
       <c r="CM62" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CN62" s="1" t="s">
         <v>146</v>
@@ -19369,10 +19369,10 @@
         <v>45129.931271365742</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>92</v>
@@ -19381,7 +19381,7 @@
         <v>92</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -19399,13 +19399,13 @@
         <v>96</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M63" s="1">
         <v>2023040073</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O63" s="1">
         <v>11971955380</v>
@@ -19423,19 +19423,19 @@
         <v>38217</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="W63" s="1">
         <v>89920260</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>105</v>
@@ -19481,7 +19481,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP63" s="1">
         <v>0</v>
@@ -19508,19 +19508,19 @@
         <v>109</v>
       </c>
       <c r="AX63" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AZ63" s="1">
         <v>0</v>
       </c>
       <c r="BA63" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BB63" s="1">
         <v>600</v>
       </c>
       <c r="BC63" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BD63" s="1">
         <v>0</v>
@@ -19532,7 +19532,7 @@
         <v>60</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BH63" s="1">
         <v>308</v>
@@ -19544,7 +19544,7 @@
         <v>160</v>
       </c>
       <c r="BK63" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL63" s="1" t="s">
         <v>118</v>
@@ -19553,7 +19553,7 @@
         <v>100</v>
       </c>
       <c r="BN63" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO63" s="1">
         <v>300</v>
@@ -19568,7 +19568,7 @@
         <v>80</v>
       </c>
       <c r="BS63" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BT63" s="1">
         <v>50</v>
@@ -19577,7 +19577,7 @@
         <v>120</v>
       </c>
       <c r="BV63" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="BW63" s="1">
         <v>0</v>
@@ -19622,7 +19622,7 @@
         <v>126</v>
       </c>
       <c r="CM63" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CN63" s="1" t="s">
         <v>127</v>
@@ -19637,10 +19637,10 @@
         <v>45129.933033553243</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>92</v>
@@ -19649,7 +19649,7 @@
         <v>93</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
@@ -19664,16 +19664,16 @@
         <v>97</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="M64" s="1">
         <v>2023040105</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O64" s="1">
         <v>11970402868</v>
@@ -19697,10 +19697,10 @@
         <v>101</v>
       </c>
       <c r="V64" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="W64" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="W64" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>104</v>
@@ -19739,7 +19739,7 @@
         <v>1300</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -19815,7 +19815,7 @@
         <v>115</v>
       </c>
       <c r="BL64" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM64" s="1">
         <v>88</v>
@@ -19845,7 +19845,7 @@
         <v>120</v>
       </c>
       <c r="BV64" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="BW64" s="1">
         <v>0</v>
@@ -19893,10 +19893,10 @@
         <v>126</v>
       </c>
       <c r="CM64" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CN64" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CO64" s="1" t="str">
         <f>IFERROR(VLOOKUP(N64,#REF!,24,0), "erro")</f>
@@ -19908,10 +19908,10 @@
         <v>45129.936859502312</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>92</v>
@@ -19920,7 +19920,7 @@
         <v>92</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G65" s="1">
         <v>8</v>
@@ -19938,19 +19938,19 @@
         <v>96</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M65" s="1">
         <v>2023040008</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O65" s="1">
         <v>11966757617</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>93</v>
@@ -19968,10 +19968,10 @@
         <v>101</v>
       </c>
       <c r="V65" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="W65" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="W65" s="5" t="s">
-        <v>692</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>104</v>
@@ -20065,7 +20065,7 @@
         <v>350</v>
       </c>
       <c r="BE65" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BF65" s="1">
         <v>125</v>
@@ -20092,7 +20092,7 @@
         <v>70</v>
       </c>
       <c r="BN65" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO65" s="1">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>120</v>
       </c>
       <c r="BV65" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="BW65" s="1">
         <v>0</v>
@@ -20179,10 +20179,10 @@
         <v>45129.940189895831</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>92</v>
@@ -20209,13 +20209,13 @@
         <v>96</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M66" s="1">
         <v>2023040026</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O66" s="1">
         <v>11961764102</v>
@@ -20239,13 +20239,13 @@
         <v>101</v>
       </c>
       <c r="V66" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="W66" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="W66" s="5" t="s">
-        <v>698</v>
-      </c>
       <c r="X66" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y66" s="1" t="s">
         <v>105</v>
@@ -20333,7 +20333,7 @@
         <v>500</v>
       </c>
       <c r="BC66" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BD66" s="1">
         <v>0</v>
@@ -20360,7 +20360,7 @@
         <v>117</v>
       </c>
       <c r="BL66" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BM66" s="1">
         <v>101</v>
@@ -20390,7 +20390,7 @@
         <v>120</v>
       </c>
       <c r="BV66" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BW66" s="1">
         <v>0</v>
@@ -20438,7 +20438,7 @@
         <v>126</v>
       </c>
       <c r="CM66" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CN66" s="1" t="s">
         <v>146</v>
@@ -20453,10 +20453,10 @@
         <v>45129.942815578703</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>92</v>
@@ -20465,7 +20465,7 @@
         <v>93</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -20480,16 +20480,16 @@
         <v>97</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M67" s="1">
         <v>2023040109</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O67" s="1">
         <v>11948300680</v>
@@ -20513,10 +20513,10 @@
         <v>101</v>
       </c>
       <c r="V67" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="W67" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="W67" s="5" t="s">
-        <v>706</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>104</v>
@@ -20565,7 +20565,7 @@
         <v>0</v>
       </c>
       <c r="AO67" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP67" s="1">
         <v>0</v>
@@ -20589,19 +20589,19 @@
         <v>60</v>
       </c>
       <c r="AW67" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AX67" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AY67" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AZ67" s="1">
         <v>1</v>
       </c>
       <c r="BA67" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB67" s="1">
         <v>0</v>
@@ -20631,7 +20631,7 @@
         <v>60</v>
       </c>
       <c r="BK67" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL67" s="1" t="s">
         <v>118</v>
@@ -20649,7 +20649,7 @@
         <v>503</v>
       </c>
       <c r="BQ67" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BR67" s="1">
         <v>0</v>
@@ -20664,7 +20664,7 @@
         <v>120</v>
       </c>
       <c r="BV67" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BW67" s="1">
         <v>0</v>
@@ -20694,10 +20694,10 @@
         <v>2500</v>
       </c>
       <c r="CF67" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CG67" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="CH67" s="1" t="s">
         <v>124</v>
@@ -20727,10 +20727,10 @@
         <v>45129.990522291671</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>92</v>
@@ -20757,13 +20757,13 @@
         <v>96</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M68" s="1">
         <v>2023040103</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O68" s="1">
         <v>11964729009</v>
@@ -20781,16 +20781,16 @@
         <v>38460</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>101</v>
       </c>
       <c r="V68" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="W68" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="W68" s="5" t="s">
-        <v>713</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>104</v>
@@ -20862,7 +20862,7 @@
         <v>1320</v>
       </c>
       <c r="AW68" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AX68" s="6">
         <v>1367500000</v>
@@ -20877,13 +20877,13 @@
         <v>410</v>
       </c>
       <c r="BC68" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BD68" s="1">
         <v>0</v>
       </c>
       <c r="BE68" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BF68" s="1">
         <v>0</v>
@@ -20919,7 +20919,7 @@
         <v>1691</v>
       </c>
       <c r="BQ68" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BR68" s="1">
         <v>0</v>
@@ -20934,7 +20934,7 @@
         <v>120</v>
       </c>
       <c r="BV68" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="BW68" s="1">
         <v>0</v>
@@ -20967,16 +20967,16 @@
         <v>115</v>
       </c>
       <c r="CH68" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CI68" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CJ68" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CK68" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CL68" s="1" t="s">
         <v>145</v>
